--- a/sofaaudit/input/Cable.xlsx
+++ b/sofaaudit/input/Cable.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="24816"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14980" tabRatio="500"/>
+    <workbookView xWindow="480" yWindow="480" windowWidth="25120" windowHeight="14500" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Cable" sheetId="1" r:id="rId1"/>
@@ -136,7 +136,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -186,6 +186,24 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -225,10 +243,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -310,8 +334,14 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="9">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
@@ -645,7 +675,7 @@
   <dimension ref="A1:X840"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="J2" sqref="J2:J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="16" x14ac:dyDescent="0"/>
@@ -659,7 +689,7 @@
     <col min="7" max="7" width="17.5" style="4" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.625" style="4" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.375" style="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.875" style="4" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="5.75" style="6" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13.125" style="9" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="6.75" style="10" bestFit="1" customWidth="1"/>
@@ -778,7 +808,7 @@
         <v>9.9</v>
       </c>
       <c r="J2" s="21">
-        <v>2000</v>
+        <v>20000</v>
       </c>
       <c r="K2" s="24"/>
       <c r="L2" s="25">
@@ -797,7 +827,7 @@
         <v>11.968109999999999</v>
       </c>
       <c r="Q2" s="29">
-        <v>41699</v>
+        <v>41791</v>
       </c>
       <c r="R2" s="21" t="s">
         <v>25</v>
@@ -808,7 +838,7 @@
       </c>
       <c r="U2" s="1">
         <f>S2*J2</f>
-        <v>11968.109999999999</v>
+        <v>119681.09999999999</v>
       </c>
       <c r="V2" s="1">
         <v>2.2999999999999998</v>
@@ -851,7 +881,7 @@
         <v>9.9</v>
       </c>
       <c r="J3" s="21">
-        <v>1</v>
+        <v>20000</v>
       </c>
       <c r="K3" s="24"/>
       <c r="L3" s="25">
@@ -870,7 +900,7 @@
         <v>5.9840549999999997</v>
       </c>
       <c r="Q3" s="29">
-        <v>41699</v>
+        <v>41791</v>
       </c>
       <c r="R3" s="21" t="s">
         <v>25</v>
@@ -881,7 +911,7 @@
       </c>
       <c r="U3" s="1">
         <f t="shared" ref="U3:U4" si="3">S3*J3</f>
-        <v>5.9840549999999997</v>
+        <v>119681.09999999999</v>
       </c>
       <c r="V3" s="1">
         <v>2.2999999999999998</v>
@@ -924,7 +954,7 @@
         <v>9.9</v>
       </c>
       <c r="J4" s="21">
-        <v>11</v>
+        <v>20000</v>
       </c>
       <c r="K4" s="24"/>
       <c r="L4" s="25">
@@ -943,7 +973,7 @@
         <v>65.824604999999991</v>
       </c>
       <c r="Q4" s="29">
-        <v>41699</v>
+        <v>41791</v>
       </c>
       <c r="R4" s="21" t="s">
         <v>25</v>
@@ -954,7 +984,7 @@
       </c>
       <c r="U4" s="1">
         <f t="shared" si="3"/>
-        <v>65.824604999999991</v>
+        <v>119681.09999999999</v>
       </c>
       <c r="V4" s="1">
         <v>2.2999999999999998</v>
